--- a/Doc/BiterPhase.xlsx
+++ b/Doc/BiterPhase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="16275" windowHeight="9015"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -240,8 +240,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,7 +603,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -638,7 +637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,38 +812,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="9.140625" style="10"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="12" width="9.140625" style="12"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="9.140625" style="6"/>
-    <col min="15" max="16" width="9.140625" style="13"/>
-    <col min="17" max="17" width="9.140625" style="28"/>
-    <col min="18" max="18" width="17.140625" style="26" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="34"/>
-    <col min="20" max="20" width="9.140625" style="35"/>
-    <col min="21" max="28" width="9.140625" style="31"/>
-    <col min="29" max="29" width="9.140625" style="23"/>
-    <col min="30" max="30" width="9.140625" style="7"/>
-    <col min="31" max="31" width="9.140625" style="36"/>
+    <col min="1" max="1" width="9.125" style="11"/>
+    <col min="2" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="9.125" style="8"/>
+    <col min="4" max="4" width="9.125" style="2"/>
+    <col min="5" max="7" width="9.125" style="9"/>
+    <col min="8" max="8" width="9.125" style="3"/>
+    <col min="9" max="9" width="9.125" style="10"/>
+    <col min="10" max="10" width="9.125" style="4"/>
+    <col min="11" max="12" width="9.125" style="12"/>
+    <col min="13" max="13" width="9.125" style="5"/>
+    <col min="14" max="14" width="9.125" style="6"/>
+    <col min="15" max="16" width="9.125" style="13"/>
+    <col min="17" max="17" width="9.125" style="28"/>
+    <col min="18" max="18" width="17.125" style="26" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="34"/>
+    <col min="20" max="20" width="9.125" style="35"/>
+    <col min="21" max="28" width="9.125" style="31"/>
+    <col min="29" max="29" width="9.125" style="23"/>
+    <col min="30" max="30" width="9.125" style="7"/>
+    <col min="31" max="31" width="9.125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -940,7 +938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -960,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="13">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>41</v>
@@ -1005,7 +1003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="P3" s="13">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>41</v>
@@ -1067,7 +1065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="13">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="R4" s="26" t="s">
         <v>42</v>
@@ -1129,7 +1127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>0.3</v>
       </c>
       <c r="P5" s="13">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="26" t="s">
         <v>43</v>
@@ -1191,22 +1189,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="9">
         <v>0.2</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" s="12">
         <v>10</v>
       </c>
@@ -1214,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="P6" s="13">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="R6" s="26" t="s">
         <v>43</v>
@@ -1259,7 +1251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="24" t="s">
         <v>53</v>
       </c>
@@ -1288,7 +1280,7 @@
         <v>0.15</v>
       </c>
       <c r="P7" s="13">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="28">
         <v>-0.15</v>
@@ -1336,7 +1328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="24" t="s">
         <v>54</v>
       </c>
@@ -1362,7 +1354,7 @@
         <v>0.35</v>
       </c>
       <c r="P8" s="13">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="28">
         <v>-0.2</v>
@@ -1410,7 +1402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="24" t="s">
         <v>63</v>
       </c>
@@ -1442,7 +1434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="24" t="s">
         <v>64</v>
       </c>
@@ -1480,7 +1472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
@@ -1548,7 +1540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="24" t="s">
         <v>69</v>
       </c>
@@ -1617,24 +1609,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
